--- a/docentes daiti.xlsx
+++ b/docentes daiti.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34792674-1984-4FD8-A2E0-929888F67745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>NOMBRES Y APELLIDOS</t>
   </si>
@@ -91,16 +92,25 @@
   </si>
   <si>
     <t>CONTRATADO 3</t>
+  </si>
+  <si>
+    <t>CONTRATADO 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,139 +417,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>